--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E081976B-6DA1-484C-8163-E93B71791EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37576FC-B943-4B9D-A620-754448A87A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>qqwee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Aishee001/ADUserdata/main/ADUserdata.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,10 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,7 +428,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -431,7 +436,7 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -453,10 +458,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -476,10 +481,13 @@
       <c r="E2">
         <v>18329953644</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
         <v>46016</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>46047</v>
       </c>
     </row>
@@ -496,10 +504,10 @@
       <c r="E3">
         <v>28329953645</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>46016</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>46047</v>
       </c>
     </row>
@@ -516,10 +524,10 @@
       <c r="E4">
         <v>38329953646</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>46016</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>46047</v>
       </c>
     </row>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37576FC-B943-4B9D-A620-754448A87A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB8DF8-B7FD-4D1A-9149-0A10CFCB693B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +68,10 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Aishee001/ADUserdata/main/ADUserdata.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,10 +432,10 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,44 +455,38 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>418324114</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>18329953644</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3">
-        <v>46016</v>
-      </c>
-      <c r="H2" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>318324114</v>
@@ -505,18 +495,15 @@
         <v>28329953645</v>
       </c>
       <c r="G3" s="3">
-        <v>46016</v>
-      </c>
-      <c r="H3" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>218324114</v>
@@ -525,100 +512,313 @@
         <v>38329953646</v>
       </c>
       <c r="G4" s="3">
-        <v>46016</v>
-      </c>
-      <c r="H4" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>218324114</v>
+      </c>
+      <c r="E5">
+        <v>38329953646</v>
+      </c>
+      <c r="G5" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>218324114</v>
+      </c>
+      <c r="E6">
+        <v>38329953646</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>218324114</v>
+      </c>
+      <c r="E7">
+        <v>38329953646</v>
+      </c>
+      <c r="G7" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>218324114</v>
+      </c>
+      <c r="E8">
+        <v>38329953646</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>218324114</v>
+      </c>
+      <c r="E9">
+        <v>38329953646</v>
+      </c>
+      <c r="G9" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>218324114</v>
+      </c>
+      <c r="E10">
+        <v>38329953646</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>218324114</v>
+      </c>
+      <c r="E11">
+        <v>38329953646</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>218324114</v>
+      </c>
+      <c r="E12">
+        <v>38329953646</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>218324114</v>
+      </c>
+      <c r="E13">
+        <v>38329953646</v>
+      </c>
+      <c r="G13" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>218324114</v>
+      </c>
+      <c r="E14">
+        <v>38329953646</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>218324114</v>
+      </c>
+      <c r="E15">
+        <v>38329953646</v>
+      </c>
+      <c r="G15" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>218324114</v>
+      </c>
+      <c r="E16">
+        <v>38329953646</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>218324114</v>
+      </c>
+      <c r="E17">
+        <v>38329953646</v>
+      </c>
+      <c r="G17" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>218324114</v>
+      </c>
+      <c r="E18">
+        <v>38329953646</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>218324114</v>
+      </c>
+      <c r="E19">
+        <v>38329953646</v>
+      </c>
+      <c r="G19" s="3">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>218324114</v>
+      </c>
+      <c r="E20">
+        <v>38329953646</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>218324114</v>
+      </c>
+      <c r="E21">
+        <v>38329953646</v>
+      </c>
+      <c r="G21" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>218324114</v>
+      </c>
+      <c r="E22">
+        <v>38329953646</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46047</v>
       </c>
     </row>
   </sheetData>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB8DF8-B7FD-4D1A-9149-0A10CFCB693B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A23562-367E-41CC-9F0E-0A63B8CECF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,11 +67,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Aishee001/ADUserdata/main/ADUserdata.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到期日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Aishee002/ADUserdata/main/ADUserdata.xlsx</t>
+  </si>
+  <si>
+    <t>交流Q群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qm.qq.com/q/rSlKgUAWZO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,11 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -421,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,30 +470,26 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>418324114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>18329953644</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>46047</v>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5">
+        <v>72937</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -486,30 +497,36 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>318324114</v>
+        <v>418324115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>28329953645</v>
+        <v>18329953645</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="3">
-        <v>46047</v>
+        <v>46048</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>218324114</v>
+        <v>318324114</v>
       </c>
       <c r="E4">
-        <v>38329953646</v>
+        <v>28329953645</v>
       </c>
       <c r="G4" s="3">
         <v>46047</v>
@@ -517,7 +534,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -534,7 +551,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -546,12 +563,12 @@
         <v>38329953646</v>
       </c>
       <c r="G6" s="3">
-        <v>45955</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -563,12 +580,12 @@
         <v>38329953646</v>
       </c>
       <c r="G7" s="3">
-        <v>46047</v>
+        <v>45955</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -585,7 +602,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -602,7 +619,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -614,12 +631,12 @@
         <v>38329953646</v>
       </c>
       <c r="G10" s="3">
-        <v>46011</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -631,12 +648,12 @@
         <v>38329953646</v>
       </c>
       <c r="G11" s="3">
-        <v>46047</v>
+        <v>46011</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -653,7 +670,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -670,7 +687,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -682,12 +699,12 @@
         <v>38329953646</v>
       </c>
       <c r="G14" s="3">
-        <v>45677</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -699,12 +716,12 @@
         <v>38329953646</v>
       </c>
       <c r="G15" s="3">
-        <v>46047</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -716,12 +733,12 @@
         <v>38329953646</v>
       </c>
       <c r="G16" s="3">
-        <v>45986</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -733,12 +750,12 @@
         <v>38329953646</v>
       </c>
       <c r="G17" s="3">
-        <v>46047</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -755,7 +772,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -767,12 +784,12 @@
         <v>38329953646</v>
       </c>
       <c r="G19" s="3">
-        <v>46003</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -784,12 +801,12 @@
         <v>38329953646</v>
       </c>
       <c r="G20" s="3">
-        <v>46047</v>
+        <v>46003</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -806,18 +823,35 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>218324114</v>
+      </c>
+      <c r="E22">
+        <v>38329953646</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>218324114</v>
-      </c>
-      <c r="E22">
-        <v>38329953646</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>218324114</v>
+      </c>
+      <c r="E23">
+        <v>38329953646</v>
+      </c>
+      <c r="G23" s="3">
         <v>46047</v>
       </c>
     </row>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A23562-367E-41CC-9F0E-0A63B8CECF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EE22A-A0EA-4C0D-A8BA-BB859A4F01E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到期日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Aishee002/ADUserdata/main/ADUserdata.xlsx</t>
   </si>
   <si>
@@ -79,6 +86,14 @@
   </si>
   <si>
     <t>https://qm.qq.com/q/rSlKgUAWZO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,10 +462,11 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,16 +485,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>321672464</v>
@@ -486,13 +505,16 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H2" s="5">
         <v>72937</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,13 +531,16 @@
         <v>18329953645</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3">
         <v>46048</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -529,10 +554,13 @@
         <v>28329953645</v>
       </c>
       <c r="G4" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46049</v>
+      </c>
+      <c r="H4" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -546,10 +574,13 @@
         <v>38329953646</v>
       </c>
       <c r="G5" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46050</v>
+      </c>
+      <c r="H5" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -563,10 +594,13 @@
         <v>38329953646</v>
       </c>
       <c r="G6" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46051</v>
+      </c>
+      <c r="H6" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -580,10 +614,13 @@
         <v>38329953646</v>
       </c>
       <c r="G7" s="3">
+        <v>46052</v>
+      </c>
+      <c r="H7" s="3">
         <v>45955</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -597,10 +634,13 @@
         <v>38329953646</v>
       </c>
       <c r="G8" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46053</v>
+      </c>
+      <c r="H8" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -614,10 +654,13 @@
         <v>38329953646</v>
       </c>
       <c r="G9" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46054</v>
+      </c>
+      <c r="H9" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -631,10 +674,13 @@
         <v>38329953646</v>
       </c>
       <c r="G10" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46055</v>
+      </c>
+      <c r="H10" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -648,10 +694,13 @@
         <v>38329953646</v>
       </c>
       <c r="G11" s="3">
+        <v>46056</v>
+      </c>
+      <c r="H11" s="3">
         <v>46011</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -665,10 +714,13 @@
         <v>38329953646</v>
       </c>
       <c r="G12" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46057</v>
+      </c>
+      <c r="H12" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -682,10 +734,13 @@
         <v>38329953646</v>
       </c>
       <c r="G13" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46058</v>
+      </c>
+      <c r="H13" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -699,10 +754,13 @@
         <v>38329953646</v>
       </c>
       <c r="G14" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46059</v>
+      </c>
+      <c r="H14" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -716,10 +774,13 @@
         <v>38329953646</v>
       </c>
       <c r="G15" s="3">
+        <v>46060</v>
+      </c>
+      <c r="H15" s="3">
         <v>45677</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -733,10 +794,13 @@
         <v>38329953646</v>
       </c>
       <c r="G16" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46061</v>
+      </c>
+      <c r="H16" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -750,10 +814,13 @@
         <v>38329953646</v>
       </c>
       <c r="G17" s="3">
+        <v>46062</v>
+      </c>
+      <c r="H17" s="3">
         <v>45986</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -767,10 +834,13 @@
         <v>38329953646</v>
       </c>
       <c r="G18" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46063</v>
+      </c>
+      <c r="H18" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -784,10 +854,13 @@
         <v>38329953646</v>
       </c>
       <c r="G19" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46064</v>
+      </c>
+      <c r="H19" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -801,10 +874,13 @@
         <v>38329953646</v>
       </c>
       <c r="G20" s="3">
+        <v>46065</v>
+      </c>
+      <c r="H20" s="3">
         <v>46003</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -818,10 +894,13 @@
         <v>38329953646</v>
       </c>
       <c r="G21" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46066</v>
+      </c>
+      <c r="H21" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -835,10 +914,13 @@
         <v>38329953646</v>
       </c>
       <c r="G22" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46067</v>
+      </c>
+      <c r="H22" s="3">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -852,6 +934,9 @@
         <v>38329953646</v>
       </c>
       <c r="G23" s="3">
+        <v>46068</v>
+      </c>
+      <c r="H23" s="3">
         <v>46047</v>
       </c>
     </row>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EE22A-A0EA-4C0D-A8BA-BB859A4F01E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5535294A-30FF-45F7-A926-B315C58F5037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,12 +127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,8 +163,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,7 +448,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5535294A-30FF-45F7-A926-B315C58F5037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB3A87-E4DD-4A68-8C7C-9CDE60FA2B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,25 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qqwee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Aishee002/ADUserdata/main/ADUserdata.xlsx</t>
-  </si>
-  <si>
     <t>交流Q群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +71,30 @@
   </si>
   <si>
     <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本广告内容仅供参考，不构成任何要约、承诺或保证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免责声明：本广告自动更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,38 +461,41 @@
     <col min="8" max="8" width="15.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>321672464</v>
@@ -499,439 +503,644 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H2" s="5">
+        <v>72937</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H3" s="5">
+        <v>72937</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H2" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>418324115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>18329953645</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G4" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H4" s="5">
+        <v>72937</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>418324114</v>
+      </c>
+      <c r="G5" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H5" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>418324114</v>
+      </c>
+      <c r="G6" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H6" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>418324114</v>
+      </c>
+      <c r="G7" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H7" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>418324114</v>
+      </c>
+      <c r="G8" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H8" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>418324114</v>
+      </c>
+      <c r="G9" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H9" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>418324114</v>
+      </c>
+      <c r="G10" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H10" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
-        <v>46048</v>
-      </c>
-      <c r="H3" s="3">
-        <v>46048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>318324114</v>
-      </c>
-      <c r="E4">
-        <v>28329953645</v>
-      </c>
-      <c r="G4" s="3">
-        <v>46049</v>
-      </c>
-      <c r="H4" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>218324114</v>
-      </c>
-      <c r="E5">
-        <v>38329953646</v>
-      </c>
-      <c r="G5" s="3">
-        <v>46050</v>
-      </c>
-      <c r="H5" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>218324114</v>
-      </c>
-      <c r="E6">
-        <v>38329953646</v>
-      </c>
-      <c r="G6" s="3">
-        <v>46051</v>
-      </c>
-      <c r="H6" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>218324114</v>
-      </c>
-      <c r="E7">
-        <v>38329953646</v>
-      </c>
-      <c r="G7" s="3">
-        <v>46052</v>
-      </c>
-      <c r="H7" s="3">
-        <v>45955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>218324114</v>
-      </c>
-      <c r="E8">
-        <v>38329953646</v>
-      </c>
-      <c r="G8" s="3">
-        <v>46053</v>
-      </c>
-      <c r="H8" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>218324114</v>
-      </c>
-      <c r="E9">
-        <v>38329953646</v>
-      </c>
-      <c r="G9" s="3">
-        <v>46054</v>
-      </c>
-      <c r="H9" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>218324114</v>
-      </c>
-      <c r="E10">
-        <v>38329953646</v>
-      </c>
-      <c r="G10" s="3">
-        <v>46055</v>
-      </c>
-      <c r="H10" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>218324114</v>
-      </c>
-      <c r="E11">
-        <v>38329953646</v>
-      </c>
-      <c r="G11" s="3">
-        <v>46056</v>
-      </c>
-      <c r="H11" s="3">
-        <v>46011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
+        <v>418324114</v>
+      </c>
+      <c r="G11" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H11" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>218324114</v>
-      </c>
-      <c r="E12">
-        <v>38329953646</v>
-      </c>
-      <c r="G12" s="3">
-        <v>46057</v>
-      </c>
-      <c r="H12" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
+        <v>418324114</v>
+      </c>
+      <c r="G12" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H12" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>218324114</v>
-      </c>
-      <c r="E13">
-        <v>38329953646</v>
-      </c>
-      <c r="G13" s="3">
-        <v>46058</v>
-      </c>
-      <c r="H13" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
+        <v>418324114</v>
+      </c>
+      <c r="G13" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H13" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>218324114</v>
-      </c>
-      <c r="E14">
-        <v>38329953646</v>
-      </c>
-      <c r="G14" s="3">
-        <v>46059</v>
-      </c>
-      <c r="H14" s="3">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
+        <v>418324114</v>
+      </c>
+      <c r="G14" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H14" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>218324114</v>
-      </c>
-      <c r="E15">
-        <v>38329953646</v>
-      </c>
-      <c r="G15" s="3">
-        <v>46060</v>
-      </c>
-      <c r="H15" s="3">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
+        <v>418324114</v>
+      </c>
+      <c r="G15" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H15" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>218324114</v>
-      </c>
-      <c r="E16">
-        <v>38329953646</v>
-      </c>
-      <c r="G16" s="3">
-        <v>46061</v>
-      </c>
-      <c r="H16" s="3">
-        <v>46047</v>
+        <v>418324114</v>
+      </c>
+      <c r="G16" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H16" s="5">
+        <v>72937</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
+      <c r="A17" s="4">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>218324114</v>
-      </c>
-      <c r="E17">
-        <v>38329953646</v>
-      </c>
-      <c r="G17" s="3">
-        <v>46062</v>
-      </c>
-      <c r="H17" s="3">
-        <v>45986</v>
+        <v>418324114</v>
+      </c>
+      <c r="G17" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H17" s="5">
+        <v>72937</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
+      <c r="A18" s="4">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>218324114</v>
-      </c>
-      <c r="E18">
-        <v>38329953646</v>
-      </c>
-      <c r="G18" s="3">
-        <v>46063</v>
-      </c>
-      <c r="H18" s="3">
-        <v>46047</v>
+        <v>418324114</v>
+      </c>
+      <c r="G18" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H18" s="5">
+        <v>72937</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
+      <c r="A19" s="4">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>218324114</v>
-      </c>
-      <c r="E19">
-        <v>38329953646</v>
-      </c>
-      <c r="G19" s="3">
-        <v>46064</v>
-      </c>
-      <c r="H19" s="3">
-        <v>46047</v>
+        <v>418324114</v>
+      </c>
+      <c r="G19" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H19" s="5">
+        <v>72937</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
+      <c r="A20" s="4">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>218324114</v>
-      </c>
-      <c r="E20">
-        <v>38329953646</v>
-      </c>
-      <c r="G20" s="3">
-        <v>46065</v>
-      </c>
-      <c r="H20" s="3">
-        <v>46003</v>
+        <v>418324114</v>
+      </c>
+      <c r="G20" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H20" s="5">
+        <v>72937</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
+      <c r="A21" s="4">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>218324114</v>
-      </c>
-      <c r="E21">
-        <v>38329953646</v>
-      </c>
-      <c r="G21" s="3">
-        <v>46066</v>
-      </c>
-      <c r="H21" s="3">
-        <v>46047</v>
+        <v>418324114</v>
+      </c>
+      <c r="G21" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H21" s="5">
+        <v>72937</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
+      <c r="A22" s="4">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>218324114</v>
-      </c>
-      <c r="E22">
-        <v>38329953646</v>
-      </c>
-      <c r="G22" s="3">
-        <v>46067</v>
-      </c>
-      <c r="H22" s="3">
-        <v>46047</v>
+        <v>418324114</v>
+      </c>
+      <c r="G22" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H22" s="5">
+        <v>72937</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
+      <c r="A23" s="4">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>218324114</v>
-      </c>
-      <c r="E23">
-        <v>38329953646</v>
-      </c>
-      <c r="G23" s="3">
-        <v>46068</v>
-      </c>
-      <c r="H23" s="3">
-        <v>46047</v>
+        <v>418324114</v>
+      </c>
+      <c r="G23" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H23" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>418324114</v>
+      </c>
+      <c r="G24" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H24" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>418324114</v>
+      </c>
+      <c r="G25" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H25" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>418324114</v>
+      </c>
+      <c r="G26" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H26" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>418324114</v>
+      </c>
+      <c r="G27" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H27" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>418324114</v>
+      </c>
+      <c r="G28" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H28" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>418324114</v>
+      </c>
+      <c r="G29" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H29" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>418324114</v>
+      </c>
+      <c r="G30" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H30" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>418324114</v>
+      </c>
+      <c r="G31" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H31" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>418324114</v>
+      </c>
+      <c r="G32" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H32" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>418324114</v>
+      </c>
+      <c r="G33" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H33" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>418324114</v>
+      </c>
+      <c r="G34" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H34" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>418324114</v>
+      </c>
+      <c r="G35" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H35" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>418324114</v>
+      </c>
+      <c r="G36" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H36" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>418324114</v>
+      </c>
+      <c r="G37" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H37" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>418324114</v>
+      </c>
+      <c r="G38" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H38" s="5">
+        <v>72937</v>
       </c>
     </row>
   </sheetData>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB3A87-E4DD-4A68-8C7C-9CDE60FA2B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C181E7-12C3-40BB-BE63-4A451E2FC9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本广告内容仅供参考，不构成任何要约、承诺或保证。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,7 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免责声明：本广告自动更新</t>
+    <t>免责声明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -159,13 +174,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,7 +466,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,8 +503,8 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -511,8 +528,8 @@
       <c r="H2" s="5">
         <v>72937</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -536,8 +553,8 @@
       <c r="H3" s="5">
         <v>72937</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -561,8 +578,8 @@
       <c r="H4" s="5">
         <v>72937</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C181E7-12C3-40BB-BE63-4A451E2FC9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70807AF-7232-49B2-8280-C96AC431E112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告投放\投诉联系QQ：418324114</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +470,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,7 +479,7 @@
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -528,8 +532,8 @@
       <c r="H2" s="5">
         <v>72937</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>14</v>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -554,7 +558,7 @@
         <v>72937</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -579,24 +583,32 @@
         <v>72937</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>418324114</v>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>321672465</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G5" s="5">
         <v>46048</v>
       </c>
       <c r="H5" s="5">
         <v>72937</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70807AF-7232-49B2-8280-C96AC431E112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692BD27-48B2-42A4-B30B-B6AE0B88204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -202,6 +234,330 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图形 2" descr="免提电话 纯色填充">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112F6EB5-E303-BD69-B602-7A49FFB75D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="0"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图形 4" descr="企鹅 纯色填充">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A921CAB8-D95E-34F2-75EE-B7578755D80D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="0"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图形 6" descr="Internet 纯色填充">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5919C975-3EE0-DC68-76FB-16920D90C3A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="0"/>
+          <a:ext cx="209550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图形 8" descr="地球仪: 美洲 纯色填充">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DDBAF4-DD04-105D-AAFB-59389D725DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="0"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图形 10" descr="握手 纯色填充">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA34008-5D3E-C370-17B4-D5B38381062F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="0"/>
+          <a:ext cx="209550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,7 +826,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,7 +878,9 @@
         <v>321672464</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
@@ -547,7 +905,9 @@
         <v>321672464</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
@@ -594,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>321672465</v>
+        <v>321672464</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1175,5 +1535,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692BD27-48B2-42A4-B30B-B6AE0B88204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9035CB7A-4DDC-4F83-9A83-32E5A77A5C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,40 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="13">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招租</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,23 +74,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>免责声明：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。</t>
+    <t>投放开始日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广告投放\投诉联系QQ：418324114</t>
+    <t>投放结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅰ、广告投放\投诉联系QQ：418324114。 
+Ⅱ、本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。
+Ⅲ、广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。
+Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,16 +119,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +133,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,19 +163,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -234,330 +205,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图形 2" descr="免提电话 纯色填充">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112F6EB5-E303-BD69-B602-7A49FFB75D6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3009900" y="0"/>
-          <a:ext cx="200025" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图形 4" descr="企鹅 纯色填充">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A921CAB8-D95E-34F2-75EE-B7578755D80D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600200" y="0"/>
-          <a:ext cx="180975" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图形 6" descr="Internet 纯色填充">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5919C975-3EE0-DC68-76FB-16920D90C3A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="0"/>
-          <a:ext cx="209550" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图形 8" descr="地球仪: 美洲 纯色填充">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DDBAF4-DD04-105D-AAFB-59389D725DEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2381250" y="0"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图形 10" descr="握手 纯色填充">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA34008-5D3E-C370-17B4-D5B38381062F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="0"/>
-          <a:ext cx="209550" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,24 +470,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="17" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -858,16 +509,40 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -877,9 +552,11 @@
       <c r="C2" s="4">
         <v>321672464</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="D2" s="4">
+        <v>99999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>99999999999</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -890,11 +567,35 @@
       <c r="H2" s="5">
         <v>72937</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="M2" s="4">
+        <v>99999999999</v>
+      </c>
+      <c r="N2" s="4">
+        <v>99999999999</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -905,9 +606,7 @@
         <v>321672464</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
@@ -917,11 +616,29 @@
       <c r="H3" s="5">
         <v>72937</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="8"/>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -942,11 +659,29 @@
       <c r="H4" s="5">
         <v>72937</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="8"/>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -967,16 +702,34 @@
       <c r="H5" s="5">
         <v>72937</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="8"/>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>418324114</v>
@@ -987,13 +740,29 @@
       <c r="H6" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="8"/>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>418324114</v>
+      </c>
+      <c r="P6" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>418324114</v>
@@ -1004,13 +773,29 @@
       <c r="H7" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="8"/>
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>418324114</v>
+      </c>
+      <c r="P7" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>418324114</v>
@@ -1021,13 +806,29 @@
       <c r="H8" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="8"/>
+      <c r="J8" s="4">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>418324114</v>
+      </c>
+      <c r="P8" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>418324114</v>
@@ -1038,30 +839,62 @@
       <c r="H9" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="8"/>
+      <c r="J9" s="4">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>418324114</v>
+      </c>
+      <c r="P9" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>418324114</v>
+      </c>
+      <c r="G10" s="5">
+        <v>46048</v>
+      </c>
+      <c r="H10" s="5">
+        <v>72937</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>418324114</v>
-      </c>
-      <c r="G10" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H10" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>418324114</v>
+      </c>
+      <c r="P10" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>418324114</v>
@@ -1072,13 +905,29 @@
       <c r="H11" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="8"/>
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>418324114</v>
+      </c>
+      <c r="P11" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>418324114</v>
@@ -1089,13 +938,29 @@
       <c r="H12" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="8"/>
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>418324114</v>
+      </c>
+      <c r="P12" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>418324114</v>
@@ -1106,13 +971,29 @@
       <c r="H13" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="8"/>
+      <c r="J13" s="4">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>418324114</v>
+      </c>
+      <c r="P13" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>418324114</v>
@@ -1123,13 +1004,29 @@
       <c r="H14" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" s="8"/>
+      <c r="J14" s="4">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>418324114</v>
+      </c>
+      <c r="P14" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>418324114</v>
@@ -1140,13 +1037,29 @@
       <c r="H15" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" s="8"/>
+      <c r="J15" s="4">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>418324114</v>
+      </c>
+      <c r="P15" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>418324114</v>
@@ -1157,13 +1070,29 @@
       <c r="H16" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="8"/>
+      <c r="J16" s="4">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>418324114</v>
+      </c>
+      <c r="P16" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>418324114</v>
@@ -1174,13 +1103,29 @@
       <c r="H17" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="8"/>
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>418324114</v>
+      </c>
+      <c r="P17" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>418324114</v>
@@ -1191,13 +1136,29 @@
       <c r="H18" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="8"/>
+      <c r="J18" s="4">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>418324114</v>
+      </c>
+      <c r="P18" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>418324114</v>
@@ -1208,13 +1169,29 @@
       <c r="H19" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="8"/>
+      <c r="J19" s="4">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>418324114</v>
+      </c>
+      <c r="P19" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>418324114</v>
@@ -1225,13 +1202,29 @@
       <c r="H20" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="8"/>
+      <c r="J20" s="4">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>418324114</v>
+      </c>
+      <c r="P20" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>418324114</v>
@@ -1242,13 +1235,29 @@
       <c r="H21" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="8"/>
+      <c r="J21" s="4">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>418324114</v>
+      </c>
+      <c r="P21" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>418324114</v>
@@ -1259,13 +1268,29 @@
       <c r="H22" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="8"/>
+      <c r="J22" s="4">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>418324114</v>
+      </c>
+      <c r="P22" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>418324114</v>
@@ -1276,13 +1301,29 @@
       <c r="H23" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="8"/>
+      <c r="J23" s="4">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>418324114</v>
+      </c>
+      <c r="P23" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>418324114</v>
@@ -1293,13 +1334,29 @@
       <c r="H24" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="8"/>
+      <c r="J24" s="4">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>418324114</v>
+      </c>
+      <c r="P24" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>418324114</v>
@@ -1310,13 +1367,29 @@
       <c r="H25" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="8"/>
+      <c r="J25" s="4">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>418324114</v>
+      </c>
+      <c r="P25" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>418324114</v>
@@ -1327,13 +1400,29 @@
       <c r="H26" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="8"/>
+      <c r="J26" s="4">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>418324114</v>
+      </c>
+      <c r="P26" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>418324114</v>
@@ -1344,13 +1433,29 @@
       <c r="H27" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="8"/>
+      <c r="J27" s="4">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>418324114</v>
+      </c>
+      <c r="P27" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>418324114</v>
@@ -1361,13 +1466,29 @@
       <c r="H28" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="8"/>
+      <c r="J28" s="4">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>418324114</v>
+      </c>
+      <c r="P28" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>418324114</v>
@@ -1378,13 +1499,29 @@
       <c r="H29" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="8"/>
+      <c r="J29" s="4">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>418324114</v>
+      </c>
+      <c r="P29" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>418324114</v>
@@ -1395,13 +1532,29 @@
       <c r="H30" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="8"/>
+      <c r="J30" s="4">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <v>418324114</v>
+      </c>
+      <c r="P30" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>418324114</v>
@@ -1412,13 +1565,29 @@
       <c r="H31" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="8"/>
+      <c r="J31" s="4">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>418324114</v>
+      </c>
+      <c r="P31" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>418324114</v>
@@ -1429,13 +1598,29 @@
       <c r="H32" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="8"/>
+      <c r="J32" s="4">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>418324114</v>
+      </c>
+      <c r="P32" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>418324114</v>
@@ -1446,13 +1631,29 @@
       <c r="H33" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="8"/>
+      <c r="J33" s="4">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>418324114</v>
+      </c>
+      <c r="P33" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>418324114</v>
@@ -1463,13 +1664,29 @@
       <c r="H34" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="8"/>
+      <c r="J34" s="4">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>418324114</v>
+      </c>
+      <c r="P34" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>418324114</v>
@@ -1480,13 +1697,29 @@
       <c r="H35" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="8"/>
+      <c r="J35" s="4">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>418324114</v>
+      </c>
+      <c r="P35" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>418324114</v>
@@ -1497,13 +1730,29 @@
       <c r="H36" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="8"/>
+      <c r="J36" s="4">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>418324114</v>
+      </c>
+      <c r="P36" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>418324114</v>
@@ -1514,13 +1763,29 @@
       <c r="H37" s="5">
         <v>72937</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="8"/>
+      <c r="J37" s="4">
+        <v>36</v>
+      </c>
+      <c r="K37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>418324114</v>
+      </c>
+      <c r="P37" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>418324114</v>
@@ -1531,10 +1796,28 @@
       <c r="H38" s="5">
         <v>72937</v>
       </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="4">
+        <v>37</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>418324114</v>
+      </c>
+      <c r="P38" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>72937</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:I38"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9035CB7A-4DDC-4F83-9A83-32E5A77A5C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37B5C36-F8A6-4195-9CB1-97E051E02A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,19 +473,20 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="20.625" customWidth="1"/>
     <col min="16" max="17" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37B5C36-F8A6-4195-9CB1-97E051E02A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A2D00-82C6-4E22-AB6D-39339699DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +86,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ⅰ、广告投放\投诉联系QQ：418324114。 
-Ⅱ、本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。
-Ⅲ、广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。
-Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Ⅱ、本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。</t>
+  </si>
+  <si>
+    <t>Ⅲ、广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ⅰ、广告投放\投诉联系QQ：418324114。 </t>
+  </si>
+  <si>
+    <t>Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
   </si>
 </sst>
 </file>
@@ -140,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,15 +168,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -184,11 +180,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,27 +466,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="35.625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.625" customWidth="1"/>
-    <col min="16" max="17" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -518,32 +510,8 @@
       <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -568,35 +536,11 @@
       <c r="H2" s="5">
         <v>72937</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="4">
-        <v>321672464</v>
-      </c>
-      <c r="M2" s="4">
-        <v>99999999999</v>
-      </c>
-      <c r="N2" s="4">
-        <v>99999999999</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -617,29 +561,11 @@
       <c r="H3" s="5">
         <v>72937</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>321672464</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -660,29 +586,11 @@
       <c r="H4" s="5">
         <v>72937</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="4">
-        <v>321672464</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -703,29 +611,11 @@
       <c r="H5" s="5">
         <v>72937</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="4">
-        <v>4</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="4">
-        <v>321672464</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -741,24 +631,9 @@
       <c r="H6" s="5">
         <v>72937</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>418324114</v>
-      </c>
-      <c r="P6" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -774,24 +649,9 @@
       <c r="H7" s="5">
         <v>72937</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="4">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>418324114</v>
-      </c>
-      <c r="P7" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -807,24 +667,9 @@
       <c r="H8" s="5">
         <v>72937</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="4">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>418324114</v>
-      </c>
-      <c r="P8" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -840,24 +685,9 @@
       <c r="H9" s="5">
         <v>72937</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="4">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>418324114</v>
-      </c>
-      <c r="P9" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -873,24 +703,9 @@
       <c r="H10" s="5">
         <v>72937</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="4">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <v>418324114</v>
-      </c>
-      <c r="P10" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -906,24 +721,9 @@
       <c r="H11" s="5">
         <v>72937</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="4">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>418324114</v>
-      </c>
-      <c r="P11" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -939,24 +739,9 @@
       <c r="H12" s="5">
         <v>72937</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="4">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>418324114</v>
-      </c>
-      <c r="P12" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -972,24 +757,9 @@
       <c r="H13" s="5">
         <v>72937</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="4">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>418324114</v>
-      </c>
-      <c r="P13" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1005,24 +775,9 @@
       <c r="H14" s="5">
         <v>72937</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="4">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>418324114</v>
-      </c>
-      <c r="P14" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1038,24 +793,9 @@
       <c r="H15" s="5">
         <v>72937</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="4">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <v>418324114</v>
-      </c>
-      <c r="P15" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1071,24 +811,9 @@
       <c r="H16" s="5">
         <v>72937</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="4">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16">
-        <v>418324114</v>
-      </c>
-      <c r="P16" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1104,24 +829,9 @@
       <c r="H17" s="5">
         <v>72937</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="4">
-        <v>16</v>
-      </c>
-      <c r="K17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <v>418324114</v>
-      </c>
-      <c r="P17" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1137,24 +847,9 @@
       <c r="H18" s="5">
         <v>72937</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="4">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18">
-        <v>418324114</v>
-      </c>
-      <c r="P18" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1170,24 +865,9 @@
       <c r="H19" s="5">
         <v>72937</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="4">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19">
-        <v>418324114</v>
-      </c>
-      <c r="P19" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1203,24 +883,9 @@
       <c r="H20" s="5">
         <v>72937</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="4">
-        <v>19</v>
-      </c>
-      <c r="K20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20">
-        <v>418324114</v>
-      </c>
-      <c r="P20" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1236,24 +901,9 @@
       <c r="H21" s="5">
         <v>72937</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="4">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <v>418324114</v>
-      </c>
-      <c r="P21" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1269,24 +919,9 @@
       <c r="H22" s="5">
         <v>72937</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="4">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <v>418324114</v>
-      </c>
-      <c r="P22" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1302,24 +937,9 @@
       <c r="H23" s="5">
         <v>72937</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="4">
-        <v>22</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23">
-        <v>418324114</v>
-      </c>
-      <c r="P23" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1335,24 +955,9 @@
       <c r="H24" s="5">
         <v>72937</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="4">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24">
-        <v>418324114</v>
-      </c>
-      <c r="P24" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1368,24 +973,9 @@
       <c r="H25" s="5">
         <v>72937</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="4">
-        <v>24</v>
-      </c>
-      <c r="K25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25">
-        <v>418324114</v>
-      </c>
-      <c r="P25" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1401,24 +991,9 @@
       <c r="H26" s="5">
         <v>72937</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="4">
-        <v>25</v>
-      </c>
-      <c r="K26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26">
-        <v>418324114</v>
-      </c>
-      <c r="P26" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1434,24 +1009,9 @@
       <c r="H27" s="5">
         <v>72937</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="4">
-        <v>26</v>
-      </c>
-      <c r="K27" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27">
-        <v>418324114</v>
-      </c>
-      <c r="P27" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1467,24 +1027,9 @@
       <c r="H28" s="5">
         <v>72937</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="4">
-        <v>27</v>
-      </c>
-      <c r="K28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28">
-        <v>418324114</v>
-      </c>
-      <c r="P28" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1500,24 +1045,9 @@
       <c r="H29" s="5">
         <v>72937</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="4">
-        <v>28</v>
-      </c>
-      <c r="K29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>418324114</v>
-      </c>
-      <c r="P29" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1533,24 +1063,9 @@
       <c r="H30" s="5">
         <v>72937</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="4">
-        <v>29</v>
-      </c>
-      <c r="K30" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30">
-        <v>418324114</v>
-      </c>
-      <c r="P30" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1566,24 +1081,9 @@
       <c r="H31" s="5">
         <v>72937</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="4">
-        <v>30</v>
-      </c>
-      <c r="K31" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31">
-        <v>418324114</v>
-      </c>
-      <c r="P31" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1599,24 +1099,9 @@
       <c r="H32" s="5">
         <v>72937</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="4">
-        <v>31</v>
-      </c>
-      <c r="K32" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32">
-        <v>418324114</v>
-      </c>
-      <c r="P32" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1632,24 +1117,9 @@
       <c r="H33" s="5">
         <v>72937</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="4">
-        <v>32</v>
-      </c>
-      <c r="K33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33">
-        <v>418324114</v>
-      </c>
-      <c r="P33" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1665,24 +1135,9 @@
       <c r="H34" s="5">
         <v>72937</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="4">
-        <v>33</v>
-      </c>
-      <c r="K34" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34">
-        <v>418324114</v>
-      </c>
-      <c r="P34" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1698,24 +1153,9 @@
       <c r="H35" s="5">
         <v>72937</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="4">
-        <v>34</v>
-      </c>
-      <c r="K35" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35">
-        <v>418324114</v>
-      </c>
-      <c r="P35" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1731,24 +1171,9 @@
       <c r="H36" s="5">
         <v>72937</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="4">
-        <v>35</v>
-      </c>
-      <c r="K36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36">
-        <v>418324114</v>
-      </c>
-      <c r="P36" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1764,24 +1189,9 @@
       <c r="H37" s="5">
         <v>72937</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="4">
-        <v>36</v>
-      </c>
-      <c r="K37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37">
-        <v>418324114</v>
-      </c>
-      <c r="P37" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1797,27 +1207,9 @@
       <c r="H38" s="5">
         <v>72937</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="4">
-        <v>37</v>
-      </c>
-      <c r="K38" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38">
-        <v>418324114</v>
-      </c>
-      <c r="P38" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>72937</v>
-      </c>
+      <c r="I38" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:I38"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A2D00-82C6-4E22-AB6D-39339699DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77BAF32-8A0B-4319-A413-98302697A6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -480,6 +480,7 @@
     <col min="6" max="6" width="35.625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77BAF32-8A0B-4319-A413-98302697A6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBADD28-EEE7-42F7-BCF5-346594EF4272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="15">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,16 +86,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ⅱ、本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。</t>
+    <t>Ⅰ、广告投放\投诉联系QQ：418324114。 
+Ⅱ、本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。
+Ⅲ、广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。
+Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ⅲ、广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。</t>
+    <t>招租1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Ⅰ、广告投放\投诉联系QQ：418324114。 </t>
-  </si>
-  <si>
-    <t>Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
+    <t>招租2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,11 +171,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -184,7 +196,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,23 +482,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.625" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -511,8 +529,32 @@
       <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -537,11 +579,35 @@
       <c r="H2" s="5">
         <v>72937</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="M2" s="4">
+        <v>99999999999</v>
+      </c>
+      <c r="N2" s="4">
+        <v>99999999999</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -562,11 +628,29 @@
       <c r="H3" s="5">
         <v>72937</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="8"/>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -587,11 +671,29 @@
       <c r="H4" s="5">
         <v>72937</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="8"/>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -612,11 +714,29 @@
       <c r="H5" s="5">
         <v>72937</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="8"/>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>321672464</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -632,9 +752,24 @@
       <c r="H6" s="5">
         <v>72937</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="8"/>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>418324114</v>
+      </c>
+      <c r="P6" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -650,9 +785,24 @@
       <c r="H7" s="5">
         <v>72937</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="8"/>
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>418324114</v>
+      </c>
+      <c r="P7" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -668,9 +818,24 @@
       <c r="H8" s="5">
         <v>72937</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="8"/>
+      <c r="J8" s="4">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>418324114</v>
+      </c>
+      <c r="P8" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -686,9 +851,24 @@
       <c r="H9" s="5">
         <v>72937</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="8"/>
+      <c r="J9" s="4">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>418324114</v>
+      </c>
+      <c r="P9" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -704,9 +884,24 @@
       <c r="H10" s="5">
         <v>72937</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="8"/>
+      <c r="J10" s="4">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>418324114</v>
+      </c>
+      <c r="P10" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -722,9 +917,24 @@
       <c r="H11" s="5">
         <v>72937</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="8"/>
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>418324114</v>
+      </c>
+      <c r="P11" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -740,9 +950,24 @@
       <c r="H12" s="5">
         <v>72937</v>
       </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="8"/>
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>418324114</v>
+      </c>
+      <c r="P12" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -758,9 +983,24 @@
       <c r="H13" s="5">
         <v>72937</v>
       </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="8"/>
+      <c r="J13" s="4">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>418324114</v>
+      </c>
+      <c r="P13" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -776,9 +1016,24 @@
       <c r="H14" s="5">
         <v>72937</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" s="8"/>
+      <c r="J14" s="4">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>418324114</v>
+      </c>
+      <c r="P14" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -794,9 +1049,24 @@
       <c r="H15" s="5">
         <v>72937</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" s="8"/>
+      <c r="J15" s="4">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>418324114</v>
+      </c>
+      <c r="P15" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -812,9 +1082,24 @@
       <c r="H16" s="5">
         <v>72937</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="8"/>
+      <c r="J16" s="4">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>418324114</v>
+      </c>
+      <c r="P16" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -830,9 +1115,24 @@
       <c r="H17" s="5">
         <v>72937</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="8"/>
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>418324114</v>
+      </c>
+      <c r="P17" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -848,9 +1148,24 @@
       <c r="H18" s="5">
         <v>72937</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="8"/>
+      <c r="J18" s="4">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>418324114</v>
+      </c>
+      <c r="P18" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -866,9 +1181,24 @@
       <c r="H19" s="5">
         <v>72937</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="8"/>
+      <c r="J19" s="4">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>418324114</v>
+      </c>
+      <c r="P19" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -884,9 +1214,24 @@
       <c r="H20" s="5">
         <v>72937</v>
       </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="8"/>
+      <c r="J20" s="4">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>418324114</v>
+      </c>
+      <c r="P20" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -902,9 +1247,24 @@
       <c r="H21" s="5">
         <v>72937</v>
       </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="8"/>
+      <c r="J21" s="4">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>418324114</v>
+      </c>
+      <c r="P21" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -920,9 +1280,24 @@
       <c r="H22" s="5">
         <v>72937</v>
       </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="8"/>
+      <c r="J22" s="4">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>418324114</v>
+      </c>
+      <c r="P22" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -938,9 +1313,24 @@
       <c r="H23" s="5">
         <v>72937</v>
       </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="8"/>
+      <c r="J23" s="4">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>418324114</v>
+      </c>
+      <c r="P23" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -956,9 +1346,24 @@
       <c r="H24" s="5">
         <v>72937</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="8"/>
+      <c r="J24" s="4">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>418324114</v>
+      </c>
+      <c r="P24" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -974,9 +1379,24 @@
       <c r="H25" s="5">
         <v>72937</v>
       </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="8"/>
+      <c r="J25" s="4">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>418324114</v>
+      </c>
+      <c r="P25" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -992,9 +1412,24 @@
       <c r="H26" s="5">
         <v>72937</v>
       </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="8"/>
+      <c r="J26" s="4">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>418324114</v>
+      </c>
+      <c r="P26" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1010,9 +1445,24 @@
       <c r="H27" s="5">
         <v>72937</v>
       </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="8"/>
+      <c r="J27" s="4">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>418324114</v>
+      </c>
+      <c r="P27" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1028,9 +1478,24 @@
       <c r="H28" s="5">
         <v>72937</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="8"/>
+      <c r="J28" s="4">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>418324114</v>
+      </c>
+      <c r="P28" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1046,9 +1511,24 @@
       <c r="H29" s="5">
         <v>72937</v>
       </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="8"/>
+      <c r="J29" s="4">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>418324114</v>
+      </c>
+      <c r="P29" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1064,9 +1544,24 @@
       <c r="H30" s="5">
         <v>72937</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="8"/>
+      <c r="J30" s="4">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <v>418324114</v>
+      </c>
+      <c r="P30" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1082,9 +1577,24 @@
       <c r="H31" s="5">
         <v>72937</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="8"/>
+      <c r="J31" s="4">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>418324114</v>
+      </c>
+      <c r="P31" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1100,14 +1610,29 @@
       <c r="H32" s="5">
         <v>72937</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="8"/>
+      <c r="J32" s="4">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>418324114</v>
+      </c>
+      <c r="P32" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>418324114</v>
@@ -1118,9 +1643,24 @@
       <c r="H33" s="5">
         <v>72937</v>
       </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="8"/>
+      <c r="J33" s="4">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <v>418324114</v>
+      </c>
+      <c r="P33" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1136,9 +1676,24 @@
       <c r="H34" s="5">
         <v>72937</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="8"/>
+      <c r="J34" s="4">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>418324114</v>
+      </c>
+      <c r="P34" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1154,9 +1709,24 @@
       <c r="H35" s="5">
         <v>72937</v>
       </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="8"/>
+      <c r="J35" s="4">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>418324114</v>
+      </c>
+      <c r="P35" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1172,9 +1742,24 @@
       <c r="H36" s="5">
         <v>72937</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="8"/>
+      <c r="J36" s="4">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>418324114</v>
+      </c>
+      <c r="P36" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1190,9 +1775,24 @@
       <c r="H37" s="5">
         <v>72937</v>
       </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="8"/>
+      <c r="J37" s="4">
+        <v>36</v>
+      </c>
+      <c r="K37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>418324114</v>
+      </c>
+      <c r="P37" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1206,11 +1806,29 @@
         <v>46048</v>
       </c>
       <c r="H38" s="5">
-        <v>72937</v>
+        <v>44083</v>
       </c>
       <c r="I38" s="7"/>
+      <c r="J38" s="4">
+        <v>37</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>418324114</v>
+      </c>
+      <c r="P38" s="5">
+        <v>46048</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>72937</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:I37"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBADD28-EEE7-42F7-BCF5-346594EF4272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB16EA1C-9FEC-4F80-87DF-5D0AD397C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,19 +86,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ⅰ、广告投放\投诉联系QQ：418324114。 
-Ⅱ、本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。
-Ⅲ、广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。
-Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招租1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>招租2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅰ、广告投放\投诉联系QQ：418324114。</t>
+  </si>
+  <si>
+    <t>Ⅱ、本广告自动更新，广告内容仅供参考，不构成任何要约、承诺或保证。</t>
+  </si>
+  <si>
+    <t>Ⅲ、广告发布者不对广告内容的真实性、准确性、完整性承担任何责任。</t>
+  </si>
+  <si>
+    <t>Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
   </si>
 </sst>
 </file>
@@ -195,11 +200,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +489,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -579,8 +586,8 @@
       <c r="H2" s="5">
         <v>72937</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -628,7 +635,9 @@
       <c r="H3" s="5">
         <v>72937</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="4">
         <v>2</v>
       </c>
@@ -671,7 +680,9 @@
       <c r="H4" s="5">
         <v>72937</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="4">
         <v>3</v>
       </c>
@@ -714,7 +725,9 @@
       <c r="H5" s="5">
         <v>72937</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="4">
         <v>4</v>
       </c>
@@ -752,7 +765,7 @@
       <c r="H6" s="5">
         <v>72937</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4">
         <v>5</v>
       </c>
@@ -785,7 +798,7 @@
       <c r="H7" s="5">
         <v>72937</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="4">
         <v>6</v>
       </c>
@@ -818,7 +831,7 @@
       <c r="H8" s="5">
         <v>72937</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="4">
         <v>7</v>
       </c>
@@ -851,7 +864,7 @@
       <c r="H9" s="5">
         <v>72937</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="4">
         <v>8</v>
       </c>
@@ -884,7 +897,7 @@
       <c r="H10" s="5">
         <v>72937</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4">
         <v>9</v>
       </c>
@@ -917,7 +930,7 @@
       <c r="H11" s="5">
         <v>72937</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="4">
         <v>10</v>
       </c>
@@ -950,7 +963,7 @@
       <c r="H12" s="5">
         <v>72937</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="4">
         <v>11</v>
       </c>
@@ -983,7 +996,7 @@
       <c r="H13" s="5">
         <v>72937</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="4">
         <v>12</v>
       </c>
@@ -1016,7 +1029,7 @@
       <c r="H14" s="5">
         <v>72937</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="4">
         <v>13</v>
       </c>
@@ -1049,7 +1062,7 @@
       <c r="H15" s="5">
         <v>72937</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="4">
         <v>14</v>
       </c>
@@ -1082,7 +1095,7 @@
       <c r="H16" s="5">
         <v>72937</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="4">
         <v>15</v>
       </c>
@@ -1115,7 +1128,7 @@
       <c r="H17" s="5">
         <v>72937</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="4">
         <v>16</v>
       </c>
@@ -1148,7 +1161,7 @@
       <c r="H18" s="5">
         <v>72937</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="4">
         <v>17</v>
       </c>
@@ -1181,7 +1194,7 @@
       <c r="H19" s="5">
         <v>72937</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="4">
         <v>18</v>
       </c>
@@ -1214,7 +1227,7 @@
       <c r="H20" s="5">
         <v>72937</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="4">
         <v>19</v>
       </c>
@@ -1247,7 +1260,7 @@
       <c r="H21" s="5">
         <v>72937</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="4">
         <v>20</v>
       </c>
@@ -1280,7 +1293,7 @@
       <c r="H22" s="5">
         <v>72937</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="4">
         <v>21</v>
       </c>
@@ -1313,7 +1326,7 @@
       <c r="H23" s="5">
         <v>72937</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="4">
         <v>22</v>
       </c>
@@ -1346,7 +1359,7 @@
       <c r="H24" s="5">
         <v>72937</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="4">
         <v>23</v>
       </c>
@@ -1379,7 +1392,7 @@
       <c r="H25" s="5">
         <v>72937</v>
       </c>
-      <c r="I25" s="8"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="4">
         <v>24</v>
       </c>
@@ -1412,7 +1425,7 @@
       <c r="H26" s="5">
         <v>72937</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="4">
         <v>25</v>
       </c>
@@ -1445,7 +1458,7 @@
       <c r="H27" s="5">
         <v>72937</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="4">
         <v>26</v>
       </c>
@@ -1478,7 +1491,7 @@
       <c r="H28" s="5">
         <v>72937</v>
       </c>
-      <c r="I28" s="8"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="4">
         <v>27</v>
       </c>
@@ -1511,7 +1524,7 @@
       <c r="H29" s="5">
         <v>72937</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="4">
         <v>28</v>
       </c>
@@ -1544,7 +1557,7 @@
       <c r="H30" s="5">
         <v>72937</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="4">
         <v>29</v>
       </c>
@@ -1577,7 +1590,7 @@
       <c r="H31" s="5">
         <v>72937</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="4">
         <v>30</v>
       </c>
@@ -1610,7 +1623,7 @@
       <c r="H32" s="5">
         <v>72937</v>
       </c>
-      <c r="I32" s="8"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="4">
         <v>31</v>
       </c>
@@ -1632,7 +1645,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>418324114</v>
@@ -1643,12 +1656,12 @@
       <c r="H33" s="5">
         <v>72937</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="4">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L33">
         <v>418324114</v>
@@ -1676,7 +1689,7 @@
       <c r="H34" s="5">
         <v>72937</v>
       </c>
-      <c r="I34" s="8"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="4">
         <v>33</v>
       </c>
@@ -1709,7 +1722,7 @@
       <c r="H35" s="5">
         <v>72937</v>
       </c>
-      <c r="I35" s="8"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="4">
         <v>34</v>
       </c>
@@ -1742,7 +1755,7 @@
       <c r="H36" s="5">
         <v>72937</v>
       </c>
-      <c r="I36" s="8"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="4">
         <v>35</v>
       </c>
@@ -1775,7 +1788,7 @@
       <c r="H37" s="5">
         <v>72937</v>
       </c>
-      <c r="I37" s="8"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="4">
         <v>36</v>
       </c>
@@ -1826,9 +1839,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:I37"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB16EA1C-9FEC-4F80-87DF-5D0AD397C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D65140-A0B6-4C85-8C34-FAEC4EDE43CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投放开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投放结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招租1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +96,18 @@
   </si>
   <si>
     <t>Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
+  </si>
+  <si>
+    <t>投放日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/13/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,23 +493,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
     <col min="15" max="15" width="20.625" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -528,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>9</v>
@@ -555,10 +559,10 @@
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -587,7 +591,7 @@
         <v>72937</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -607,11 +611,11 @@
       <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5">
-        <v>46048</v>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="Q2" s="5">
-        <v>72937</v>
+        <v>73028</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -636,7 +640,7 @@
         <v>72937</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -681,7 +685,7 @@
         <v>72937</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
@@ -726,7 +730,7 @@
         <v>72937</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="4">
         <v>4</v>
@@ -1645,7 +1649,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>418324114</v>
@@ -1661,7 +1665,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L33">
         <v>418324114</v>
@@ -1816,10 +1820,10 @@
         <v>418324114</v>
       </c>
       <c r="G38" s="5">
-        <v>46048</v>
+        <v>46321</v>
       </c>
       <c r="H38" s="5">
-        <v>44083</v>
+        <v>44174</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="4">

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D65140-A0B6-4C85-8C34-FAEC4EDE43CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B675E4F4-31E9-4CD0-8E5F-B6528884404A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,15 +98,7 @@
     <t>Ⅳ、广告受众在参与广告活动时，应自行判断广告内容的真实性，并承担由此产生的风险。</t>
   </si>
   <si>
-    <t>投放日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2026/13/26</t>
+    <t>投放结束日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,9 +483,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -501,18 +495,16 @@
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="20.625" customWidth="1"/>
-    <col min="16" max="16" width="11.625" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="12.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -531,41 +523,35 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -585,40 +571,34 @@
         <v>6</v>
       </c>
       <c r="G2" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H2" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I2" s="8" t="s">
+        <v>72937</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="K2" s="4">
+        <v>321672464</v>
+      </c>
       <c r="L2" s="4">
-        <v>321672464</v>
+        <v>99999999999</v>
       </c>
       <c r="M2" s="4">
         <v>99999999999</v>
       </c>
-      <c r="N2" s="4">
-        <v>99999999999</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="5">
+      <c r="O2" s="5">
         <v>73028</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -634,36 +614,30 @@
         <v>6</v>
       </c>
       <c r="G3" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H3" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>72937</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" s="4">
         <v>2</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="4">
+      <c r="K3" s="4">
         <v>321672464</v>
       </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O3" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -679,36 +653,30 @@
         <v>6</v>
       </c>
       <c r="G4" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H4" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I4" s="9" t="s">
+        <v>72937</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4">
+      <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="4">
         <v>321672464</v>
       </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O4" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -724,36 +692,30 @@
         <v>6</v>
       </c>
       <c r="G5" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H5" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I5" s="9" t="s">
+        <v>72937</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="4">
+      <c r="I5" s="4">
         <v>4</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="K5" s="4">
         <v>321672464</v>
       </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O5" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -764,29 +726,23 @@
         <v>418324114</v>
       </c>
       <c r="G6" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H6" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>418324114</v>
-      </c>
-      <c r="P6" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>418324114</v>
+      </c>
+      <c r="O6" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -797,29 +753,23 @@
         <v>418324114</v>
       </c>
       <c r="G7" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H7" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>418324114</v>
-      </c>
-      <c r="P7" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>418324114</v>
+      </c>
+      <c r="O7" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -830,29 +780,23 @@
         <v>418324114</v>
       </c>
       <c r="G8" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H8" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="4">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>418324114</v>
-      </c>
-      <c r="P8" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>72937</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>418324114</v>
+      </c>
+      <c r="O8" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -863,29 +807,23 @@
         <v>418324114</v>
       </c>
       <c r="G9" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H9" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4">
         <v>8</v>
       </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>418324114</v>
-      </c>
-      <c r="P9" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>418324114</v>
+      </c>
+      <c r="O9" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -896,29 +834,23 @@
         <v>418324114</v>
       </c>
       <c r="G10" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H10" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4">
         <v>9</v>
       </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <v>418324114</v>
-      </c>
-      <c r="P10" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>418324114</v>
+      </c>
+      <c r="O10" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -929,29 +861,23 @@
         <v>418324114</v>
       </c>
       <c r="G11" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H11" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4">
         <v>10</v>
       </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>418324114</v>
-      </c>
-      <c r="P11" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>418324114</v>
+      </c>
+      <c r="O11" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -962,29 +888,23 @@
         <v>418324114</v>
       </c>
       <c r="G12" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H12" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4">
         <v>11</v>
       </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>418324114</v>
-      </c>
-      <c r="P12" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>418324114</v>
+      </c>
+      <c r="O12" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -995,29 +915,23 @@
         <v>418324114</v>
       </c>
       <c r="G13" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H13" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4">
         <v>12</v>
       </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>418324114</v>
-      </c>
-      <c r="P13" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>418324114</v>
+      </c>
+      <c r="O13" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1028,29 +942,23 @@
         <v>418324114</v>
       </c>
       <c r="G14" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H14" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4">
         <v>13</v>
       </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>418324114</v>
-      </c>
-      <c r="P14" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>418324114</v>
+      </c>
+      <c r="O14" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1061,29 +969,23 @@
         <v>418324114</v>
       </c>
       <c r="G15" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H15" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="4">
         <v>14</v>
       </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <v>418324114</v>
-      </c>
-      <c r="P15" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>418324114</v>
+      </c>
+      <c r="O15" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1094,29 +996,23 @@
         <v>418324114</v>
       </c>
       <c r="G16" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H16" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4">
         <v>15</v>
       </c>
-      <c r="K16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16">
-        <v>418324114</v>
-      </c>
-      <c r="P16" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>418324114</v>
+      </c>
+      <c r="O16" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1127,29 +1023,23 @@
         <v>418324114</v>
       </c>
       <c r="G17" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H17" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4">
         <v>16</v>
       </c>
-      <c r="K17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <v>418324114</v>
-      </c>
-      <c r="P17" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>418324114</v>
+      </c>
+      <c r="O17" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1160,29 +1050,23 @@
         <v>418324114</v>
       </c>
       <c r="G18" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H18" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4">
         <v>17</v>
       </c>
-      <c r="K18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18">
-        <v>418324114</v>
-      </c>
-      <c r="P18" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>418324114</v>
+      </c>
+      <c r="O18" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1193,29 +1077,23 @@
         <v>418324114</v>
       </c>
       <c r="G19" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H19" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4">
         <v>18</v>
       </c>
-      <c r="K19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19">
-        <v>418324114</v>
-      </c>
-      <c r="P19" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>418324114</v>
+      </c>
+      <c r="O19" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1226,29 +1104,23 @@
         <v>418324114</v>
       </c>
       <c r="G20" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H20" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="4">
         <v>19</v>
       </c>
-      <c r="K20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20">
-        <v>418324114</v>
-      </c>
-      <c r="P20" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>418324114</v>
+      </c>
+      <c r="O20" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1259,29 +1131,23 @@
         <v>418324114</v>
       </c>
       <c r="G21" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H21" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4">
         <v>20</v>
       </c>
-      <c r="K21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <v>418324114</v>
-      </c>
-      <c r="P21" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>418324114</v>
+      </c>
+      <c r="O21" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1292,29 +1158,23 @@
         <v>418324114</v>
       </c>
       <c r="G22" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H22" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="4">
         <v>21</v>
       </c>
-      <c r="K22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <v>418324114</v>
-      </c>
-      <c r="P22" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>418324114</v>
+      </c>
+      <c r="O22" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1325,29 +1185,23 @@
         <v>418324114</v>
       </c>
       <c r="G23" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H23" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="4">
         <v>22</v>
       </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23">
-        <v>418324114</v>
-      </c>
-      <c r="P23" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>418324114</v>
+      </c>
+      <c r="O23" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1358,29 +1212,23 @@
         <v>418324114</v>
       </c>
       <c r="G24" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H24" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="4">
         <v>23</v>
       </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24">
-        <v>418324114</v>
-      </c>
-      <c r="P24" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>418324114</v>
+      </c>
+      <c r="O24" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1391,29 +1239,23 @@
         <v>418324114</v>
       </c>
       <c r="G25" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H25" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="4">
         <v>24</v>
       </c>
-      <c r="K25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25">
-        <v>418324114</v>
-      </c>
-      <c r="P25" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>418324114</v>
+      </c>
+      <c r="O25" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1424,29 +1266,23 @@
         <v>418324114</v>
       </c>
       <c r="G26" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H26" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="4">
         <v>25</v>
       </c>
-      <c r="K26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26">
-        <v>418324114</v>
-      </c>
-      <c r="P26" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>418324114</v>
+      </c>
+      <c r="O26" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1457,29 +1293,23 @@
         <v>418324114</v>
       </c>
       <c r="G27" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H27" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="4">
         <v>26</v>
       </c>
-      <c r="K27" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27">
-        <v>418324114</v>
-      </c>
-      <c r="P27" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>418324114</v>
+      </c>
+      <c r="O27" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1490,29 +1320,23 @@
         <v>418324114</v>
       </c>
       <c r="G28" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H28" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="4">
         <v>27</v>
       </c>
-      <c r="K28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28">
-        <v>418324114</v>
-      </c>
-      <c r="P28" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>418324114</v>
+      </c>
+      <c r="O28" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1523,29 +1347,23 @@
         <v>418324114</v>
       </c>
       <c r="G29" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H29" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="4">
         <v>28</v>
       </c>
-      <c r="K29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>418324114</v>
-      </c>
-      <c r="P29" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>418324114</v>
+      </c>
+      <c r="O29" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1556,29 +1374,23 @@
         <v>418324114</v>
       </c>
       <c r="G30" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H30" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="4">
         <v>29</v>
       </c>
-      <c r="K30" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30">
-        <v>418324114</v>
-      </c>
-      <c r="P30" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>418324114</v>
+      </c>
+      <c r="O30" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1589,29 +1401,23 @@
         <v>418324114</v>
       </c>
       <c r="G31" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H31" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="4">
         <v>30</v>
       </c>
-      <c r="K31" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31">
-        <v>418324114</v>
-      </c>
-      <c r="P31" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>418324114</v>
+      </c>
+      <c r="O31" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1622,29 +1428,23 @@
         <v>418324114</v>
       </c>
       <c r="G32" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H32" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="4">
         <v>31</v>
       </c>
-      <c r="K32" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32">
-        <v>418324114</v>
-      </c>
-      <c r="P32" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>418324114</v>
+      </c>
+      <c r="O32" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1655,29 +1455,23 @@
         <v>418324114</v>
       </c>
       <c r="G33" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H33" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="4">
         <v>32</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s">
         <v>11</v>
       </c>
-      <c r="L33">
-        <v>418324114</v>
-      </c>
-      <c r="P33" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q33" s="5">
+      <c r="K33">
+        <v>418324114</v>
+      </c>
+      <c r="O33" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1688,29 +1482,23 @@
         <v>418324114</v>
       </c>
       <c r="G34" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H34" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="4">
         <v>33</v>
       </c>
-      <c r="K34" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34">
-        <v>418324114</v>
-      </c>
-      <c r="P34" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>418324114</v>
+      </c>
+      <c r="O34" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1721,29 +1509,23 @@
         <v>418324114</v>
       </c>
       <c r="G35" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H35" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="4">
         <v>34</v>
       </c>
-      <c r="K35" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35">
-        <v>418324114</v>
-      </c>
-      <c r="P35" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>418324114</v>
+      </c>
+      <c r="O35" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1754,29 +1536,23 @@
         <v>418324114</v>
       </c>
       <c r="G36" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H36" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="4">
         <v>35</v>
       </c>
-      <c r="K36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36">
-        <v>418324114</v>
-      </c>
-      <c r="P36" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>418324114</v>
+      </c>
+      <c r="O36" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1787,29 +1563,23 @@
         <v>418324114</v>
       </c>
       <c r="G37" s="5">
-        <v>46048</v>
-      </c>
-      <c r="H37" s="5">
-        <v>72937</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="4">
+        <v>72937</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="4">
         <v>36</v>
       </c>
-      <c r="K37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37">
-        <v>418324114</v>
-      </c>
-      <c r="P37" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>418324114</v>
+      </c>
+      <c r="O37" s="5">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1820,25 +1590,19 @@
         <v>418324114</v>
       </c>
       <c r="G38" s="5">
-        <v>46321</v>
-      </c>
-      <c r="H38" s="5">
         <v>44174</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="4">
+      <c r="H38" s="7"/>
+      <c r="I38" s="4">
         <v>37</v>
       </c>
-      <c r="K38" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38">
-        <v>418324114</v>
-      </c>
-      <c r="P38" s="5">
-        <v>46048</v>
-      </c>
-      <c r="Q38" s="5">
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>418324114</v>
+      </c>
+      <c r="O38" s="5">
         <v>72937</v>
       </c>
     </row>

--- a/ADUserdata.xlsx
+++ b/ADUserdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\广告用户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B675E4F4-31E9-4CD0-8E5F-B6528884404A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712DA03D-E1D5-4BE1-A97E-CD2D0A18FAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="16">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招租1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招租2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ⅰ、广告投放\投诉联系QQ：418324114。</t>
   </si>
   <si>
@@ -101,12 +93,16 @@
     <t>投放结束日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://qm.qq.com/q/OQG0DlyScu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +123,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -185,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -202,6 +204,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,9 +488,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -524,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -548,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -571,10 +572,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
@@ -595,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="O2" s="5">
-        <v>73028</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -614,10 +615,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="4">
         <v>2</v>
@@ -634,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="O3" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>109461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -645,18 +646,18 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>321672464</v>
+        <v>583333827</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4">
         <v>3</v>
@@ -665,18 +666,18 @@
         <v>5</v>
       </c>
       <c r="K4" s="4">
-        <v>321672464</v>
+        <v>583333827</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>6</v>
+      <c r="N4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="O4" s="5">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>109461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -684,18 +685,18 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>321672464</v>
+        <v>583333827</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4">
         <v>4</v>
@@ -704,15 +705,15 @@
         <v>5</v>
       </c>
       <c r="K5" s="4">
-        <v>321672464</v>
+        <v>583333827</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>6</v>
+      <c r="N5" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="O5" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -726,7 +727,7 @@
         <v>418324114</v>
       </c>
       <c r="G6" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="4">
@@ -739,7 +740,7 @@
         <v>418324114</v>
       </c>
       <c r="O6" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -753,7 +754,7 @@
         <v>418324114</v>
       </c>
       <c r="G7" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="4">
@@ -766,7 +767,7 @@
         <v>418324114</v>
       </c>
       <c r="O7" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -780,7 +781,7 @@
         <v>418324114</v>
       </c>
       <c r="G8" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="4">
@@ -793,7 +794,7 @@
         <v>418324114</v>
       </c>
       <c r="O8" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -807,7 +808,7 @@
         <v>418324114</v>
       </c>
       <c r="G9" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="4">
@@ -820,7 +821,7 @@
         <v>418324114</v>
       </c>
       <c r="O9" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -834,7 +835,7 @@
         <v>418324114</v>
       </c>
       <c r="G10" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="4">
@@ -847,7 +848,7 @@
         <v>418324114</v>
       </c>
       <c r="O10" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -861,7 +862,7 @@
         <v>418324114</v>
       </c>
       <c r="G11" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="4">
@@ -874,7 +875,7 @@
         <v>418324114</v>
       </c>
       <c r="O11" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -888,7 +889,7 @@
         <v>418324114</v>
       </c>
       <c r="G12" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="4">
@@ -901,7 +902,7 @@
         <v>418324114</v>
       </c>
       <c r="O12" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -915,7 +916,7 @@
         <v>418324114</v>
       </c>
       <c r="G13" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="4">
@@ -928,7 +929,7 @@
         <v>418324114</v>
       </c>
       <c r="O13" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -942,7 +943,7 @@
         <v>418324114</v>
       </c>
       <c r="G14" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="4">
@@ -955,7 +956,7 @@
         <v>418324114</v>
       </c>
       <c r="O14" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -969,7 +970,7 @@
         <v>418324114</v>
       </c>
       <c r="G15" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="4">
@@ -982,7 +983,7 @@
         <v>418324114</v>
       </c>
       <c r="O15" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -996,7 +997,7 @@
         <v>418324114</v>
       </c>
       <c r="G16" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="4">
@@ -1009,7 +1010,7 @@
         <v>418324114</v>
       </c>
       <c r="O16" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1023,7 +1024,7 @@
         <v>418324114</v>
       </c>
       <c r="G17" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="4">
@@ -1036,7 +1037,7 @@
         <v>418324114</v>
       </c>
       <c r="O17" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1050,7 +1051,7 @@
         <v>418324114</v>
       </c>
       <c r="G18" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="4">
@@ -1063,7 +1064,7 @@
         <v>418324114</v>
       </c>
       <c r="O18" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1077,7 +1078,7 @@
         <v>418324114</v>
       </c>
       <c r="G19" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="4">
@@ -1090,7 +1091,7 @@
         <v>418324114</v>
       </c>
       <c r="O19" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1104,7 +1105,7 @@
         <v>418324114</v>
       </c>
       <c r="G20" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="4">
@@ -1117,7 +1118,7 @@
         <v>418324114</v>
       </c>
       <c r="O20" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1131,7 +1132,7 @@
         <v>418324114</v>
       </c>
       <c r="G21" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="4">
@@ -1144,7 +1145,7 @@
         <v>418324114</v>
       </c>
       <c r="O21" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1158,7 +1159,7 @@
         <v>418324114</v>
       </c>
       <c r="G22" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="4">
@@ -1171,7 +1172,7 @@
         <v>418324114</v>
       </c>
       <c r="O22" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1185,7 +1186,7 @@
         <v>418324114</v>
       </c>
       <c r="G23" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="4">
@@ -1198,7 +1199,7 @@
         <v>418324114</v>
       </c>
       <c r="O23" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1212,7 +1213,7 @@
         <v>418324114</v>
       </c>
       <c r="G24" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="4">
@@ -1225,7 +1226,7 @@
         <v>418324114</v>
       </c>
       <c r="O24" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1239,7 +1240,7 @@
         <v>418324114</v>
       </c>
       <c r="G25" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="4">
@@ -1252,7 +1253,7 @@
         <v>418324114</v>
       </c>
       <c r="O25" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1266,7 +1267,7 @@
         <v>418324114</v>
       </c>
       <c r="G26" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="4">
@@ -1279,7 +1280,7 @@
         <v>418324114</v>
       </c>
       <c r="O26" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1293,7 +1294,7 @@
         <v>418324114</v>
       </c>
       <c r="G27" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="4">
@@ -1306,7 +1307,7 @@
         <v>418324114</v>
       </c>
       <c r="O27" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1320,7 +1321,7 @@
         <v>418324114</v>
       </c>
       <c r="G28" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="4">
@@ -1333,7 +1334,7 @@
         <v>418324114</v>
       </c>
       <c r="O28" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1347,7 +1348,7 @@
         <v>418324114</v>
       </c>
       <c r="G29" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="4">
@@ -1360,7 +1361,7 @@
         <v>418324114</v>
       </c>
       <c r="O29" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1374,7 +1375,7 @@
         <v>418324114</v>
       </c>
       <c r="G30" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="4">
@@ -1387,7 +1388,7 @@
         <v>418324114</v>
       </c>
       <c r="O30" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -1401,7 +1402,7 @@
         <v>418324114</v>
       </c>
       <c r="G31" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="4">
@@ -1414,7 +1415,7 @@
         <v>418324114</v>
       </c>
       <c r="O31" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -1428,7 +1429,7 @@
         <v>418324114</v>
       </c>
       <c r="G32" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="4">
@@ -1441,7 +1442,7 @@
         <v>418324114</v>
       </c>
       <c r="O32" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -1449,26 +1450,26 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>418324114</v>
       </c>
       <c r="G33" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="4">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K33">
         <v>418324114</v>
       </c>
       <c r="O33" s="5">
-        <v>44448</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -1482,7 +1483,7 @@
         <v>418324114</v>
       </c>
       <c r="G34" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="4">
@@ -1495,7 +1496,7 @@
         <v>418324114</v>
       </c>
       <c r="O34" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1509,7 +1510,7 @@
         <v>418324114</v>
       </c>
       <c r="G35" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="4">
@@ -1522,7 +1523,7 @@
         <v>418324114</v>
       </c>
       <c r="O35" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -1536,7 +1537,7 @@
         <v>418324114</v>
       </c>
       <c r="G36" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="4">
@@ -1549,7 +1550,7 @@
         <v>418324114</v>
       </c>
       <c r="O36" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -1563,7 +1564,7 @@
         <v>418324114</v>
       </c>
       <c r="G37" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="4">
@@ -1576,7 +1577,7 @@
         <v>418324114</v>
       </c>
       <c r="O37" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -1590,7 +1591,7 @@
         <v>418324114</v>
       </c>
       <c r="G38" s="5">
-        <v>44174</v>
+        <v>109461</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="4">
@@ -1603,7 +1604,7 @@
         <v>418324114</v>
       </c>
       <c r="O38" s="5">
-        <v>72937</v>
+        <v>109461</v>
       </c>
     </row>
   </sheetData>
